--- a/Libary/MTE_142_Q.xlsx
+++ b/Libary/MTE_142_Q.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\AI-Meter_develop\Libary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\Mea-Auto_develop\Libary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -67,6 +67,20 @@
           </rPr>
           <t>-90 на РЕСУРС-К2
 +90 на М113С</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>+\- в залежності від коду виходу</t>
         </r>
       </text>
     </comment>
@@ -220,12 +234,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="P35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>+\- в залежності від коду виходу</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="70">
   <si>
     <t>перетворювача</t>
   </si>
@@ -361,18 +389,12 @@
     <t>645 ÷ 800 мм. рт. cт</t>
   </si>
   <si>
-    <t>Нормуюче знач. вих. сигналу, mA</t>
-  </si>
-  <si>
     <t>Номінальна напруга, V</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>X/19-8A</t>
-  </si>
-  <si>
     <t>Tenma 72-6805</t>
   </si>
   <si>
@@ -392,9 +414,6 @@
   </si>
   <si>
     <t>МТЕ 142</t>
-  </si>
-  <si>
-    <t>7 А2H1</t>
   </si>
   <si>
     <t>4. Контроль пульсації вихідного сигналу постійного струму</t>
@@ -417,9 +436,6 @@
     <t>Висновок:</t>
   </si>
   <si>
-    <t xml:space="preserve"> придатний  </t>
-  </si>
-  <si>
     <t>Підпис</t>
   </si>
   <si>
@@ -449,6 +465,9 @@
   </si>
   <si>
     <t>Границі основної приведеної похибки, ± %</t>
+  </si>
+  <si>
+    <t>Нормуюче знач. вих. сигналу, mA (Var)</t>
   </si>
 </sst>
 </file>
@@ -460,7 +479,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,6 +574,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -801,13 +827,118 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -822,19 +953,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -843,101 +962,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1221,44 +1247,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W145"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A14" zoomScale="180" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23:V35"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="180" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="22" width="4.140625" style="2" customWidth="1"/>
+    <col min="1" max="21" width="4.140625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" style="2" customWidth="1"/>
     <col min="23" max="23" width="4" style="2" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1287,42 +1314,42 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" s="55"/>
-      <c r="P3" s="54" t="s">
+      <c r="K3" s="36"/>
+      <c r="L3" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="66"/>
+      <c r="N3" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="63"/>
+      <c r="P3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="56"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="64"/>
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1352,39 +1379,39 @@
     </row>
     <row r="5" spans="1:23" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="22">
         <v>0.25</v>
       </c>
-      <c r="F5" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+      <c r="F5" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
+      <c r="J5" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
       <c r="M5" s="22">
         <v>100</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
       <c r="Q5" s="22"/>
-      <c r="R5" s="61" t="s">
+      <c r="R5" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
       <c r="U5" s="23">
         <v>4</v>
       </c>
@@ -1393,78 +1420,78 @@
     </row>
     <row r="6" spans="1:23" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
     </row>
     <row r="7" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="N7" s="48" t="s">
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="N7" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="N8" s="45" t="s">
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="N8" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45" t="s">
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
     </row>
     <row r="9" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
@@ -1473,28 +1500,28 @@
       <c r="C9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="40" t="s">
+      <c r="E9" s="40"/>
+      <c r="F9" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
-      <c r="N9" s="34" t="s">
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="N9" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="49">
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="45">
         <v>556621</v>
       </c>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="50"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="46"/>
     </row>
     <row r="10" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
@@ -1503,28 +1530,28 @@
       <c r="C10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="40" t="s">
+      <c r="E10" s="65"/>
+      <c r="F10" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="42"/>
-      <c r="N10" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="50"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="N10" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="46"/>
     </row>
     <row r="11" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
@@ -1533,28 +1560,28 @@
       <c r="C11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="40" t="s">
+      <c r="E11" s="40"/>
+      <c r="F11" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="42"/>
-      <c r="N11" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="50"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
+      <c r="N11" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="46"/>
     </row>
     <row r="12" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
@@ -1563,28 +1590,28 @@
       <c r="C12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="40" t="s">
+      <c r="E12" s="40"/>
+      <c r="F12" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
-      <c r="N12" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="50"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
+      <c r="N12" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="46"/>
     </row>
     <row r="13" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
@@ -1593,24 +1620,24 @@
       <c r="C13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66" t="s">
+      <c r="E13" s="41"/>
+      <c r="F13" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="71"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="49"/>
     </row>
     <row r="14" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="5"/>
@@ -1620,116 +1647,116 @@
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="76" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="T15" s="76"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
     </row>
     <row r="16" spans="1:23" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="45" t="s">
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
     </row>
     <row r="17" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="45" t="s">
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
     </row>
     <row r="18" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="45" t="s">
+      <c r="A18" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="75"/>
     </row>
     <row r="19" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1753,108 +1780,108 @@
     </row>
     <row r="20" spans="1:22" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="63"/>
+        <v>45</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="76"/>
       <c r="E20" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="46"/>
+        <v>45</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="38"/>
       <c r="H20" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I20" s="33"/>
-      <c r="J20" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
+      <c r="J20" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
       <c r="M20" s="26" t="str">
         <f>IF(H20="(-5)..0..5","5",IF(H20="0..5","5",IF(H20="0..2,5..5","5","20")))</f>
         <v>20</v>
       </c>
-      <c r="N20" s="64" t="s">
+      <c r="N20" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+    </row>
+    <row r="21" spans="1:22" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="64"/>
-      <c r="U20" s="64"/>
-      <c r="V20" s="64"/>
-    </row>
-    <row r="21" spans="1:22" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="46" t="s">
+      <c r="J21" s="38"/>
+      <c r="K21" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="46" t="s">
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="V21" s="45"/>
+      <c r="V21" s="56"/>
     </row>
     <row r="22" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
       <c r="M22" s="25" t="s">
         <v>39</v>
       </c>
@@ -1865,7 +1892,7 @@
         <v>41</v>
       </c>
       <c r="P22" s="25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q22" s="25" t="s">
         <v>39</v>
@@ -1877,10 +1904,10 @@
         <v>41</v>
       </c>
       <c r="T22" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
+        <v>62</v>
+      </c>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
     </row>
     <row r="23" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
@@ -1907,18 +1934,18 @@
       <c r="H23" s="28">
         <v>0</v>
       </c>
-      <c r="I23" s="73" t="e">
+      <c r="I23" s="31" t="e">
         <f>K23/3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J23" s="73">
+      <c r="J23" s="31">
         <v>11.547005383792515</v>
       </c>
-      <c r="K23" s="73" t="e">
+      <c r="K23" s="31" t="e">
         <f t="shared" ref="K23:K35" si="2">SQRT(3)*B23*E23*(SIN(F23*PI()/180))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L23" s="73">
+      <c r="L23" s="31">
         <v>34.641016151377542</v>
       </c>
       <c r="M23" s="26" t="s">
@@ -1931,7 +1958,7 @@
         <v>42</v>
       </c>
       <c r="P23" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q23" s="26" t="s">
         <v>42</v>
@@ -1977,18 +2004,18 @@
       <c r="H24" s="28">
         <v>1</v>
       </c>
-      <c r="I24" s="73" t="e">
+      <c r="I24" s="31" t="e">
         <f t="shared" ref="I24:I35" si="3">K24/3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J24" s="73">
+      <c r="J24" s="31">
         <v>12.5470053837925</v>
       </c>
-      <c r="K24" s="73" t="e">
+      <c r="K24" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L24" s="73">
+      <c r="L24" s="31">
         <v>35.641016151377499</v>
       </c>
       <c r="M24" s="26" t="s">
@@ -2001,7 +2028,7 @@
         <v>42</v>
       </c>
       <c r="P24" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q24" s="26" t="s">
         <v>42</v>
@@ -2013,7 +2040,7 @@
         <v>42</v>
       </c>
       <c r="T24" s="19" t="e">
-        <f t="shared" ref="T24:T35" si="4">(P24-($M$20*K24)/(SQRT(3)*$M$5*$I$5*(SIN(90*PI()/180))))/$M$20*100</f>
+        <f t="shared" ref="T24:T34" si="4">(P24-($M$20*K24)/(SQRT(3)*$M$5*$I$5*(SIN(90*PI()/180))))/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="U24" s="33"/>
@@ -2044,18 +2071,18 @@
       <c r="H25" s="28">
         <v>-1</v>
       </c>
-      <c r="I25" s="73" t="e">
+      <c r="I25" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J25" s="73">
+      <c r="J25" s="31">
         <v>13.5470053837925</v>
       </c>
-      <c r="K25" s="73" t="e">
+      <c r="K25" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L25" s="73">
+      <c r="L25" s="31">
         <v>36.641016151377499</v>
       </c>
       <c r="M25" s="26" t="s">
@@ -2068,7 +2095,7 @@
         <v>42</v>
       </c>
       <c r="P25" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q25" s="26" t="s">
         <v>42</v>
@@ -2080,7 +2107,7 @@
         <v>42</v>
       </c>
       <c r="T25" s="19" t="e">
-        <f t="shared" si="4"/>
+        <f>(P25-($M$20*K25)/(SQRT(3)*$M$5*$I$5*(SIN(90*PI()/180))*IF($H$20="(-5)..0..5","1","-1")))/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="U25" s="33"/>
@@ -2111,18 +2138,18 @@
       <c r="H26" s="28">
         <v>1</v>
       </c>
-      <c r="I26" s="73" t="e">
+      <c r="I26" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J26" s="73">
+      <c r="J26" s="31">
         <v>14.5470053837925</v>
       </c>
-      <c r="K26" s="73" t="e">
+      <c r="K26" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L26" s="73">
+      <c r="L26" s="31">
         <v>37.641016151377499</v>
       </c>
       <c r="M26" s="26" t="s">
@@ -2135,7 +2162,7 @@
         <v>42</v>
       </c>
       <c r="P26" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="26" t="s">
         <v>42</v>
@@ -2178,18 +2205,18 @@
       <c r="H27" s="28">
         <v>1</v>
       </c>
-      <c r="I27" s="73" t="e">
+      <c r="I27" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J27" s="73">
+      <c r="J27" s="31">
         <v>15.5470053837925</v>
       </c>
-      <c r="K27" s="73" t="e">
+      <c r="K27" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L27" s="73">
+      <c r="L27" s="31">
         <v>38.641016151377499</v>
       </c>
       <c r="M27" s="26" t="s">
@@ -2202,7 +2229,7 @@
         <v>42</v>
       </c>
       <c r="P27" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="26" t="s">
         <v>42</v>
@@ -2245,18 +2272,18 @@
       <c r="H28" s="28">
         <v>1</v>
       </c>
-      <c r="I28" s="73" t="e">
+      <c r="I28" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J28" s="73">
+      <c r="J28" s="31">
         <v>16.547005383792499</v>
       </c>
-      <c r="K28" s="73" t="e">
+      <c r="K28" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L28" s="73">
+      <c r="L28" s="31">
         <v>39.641016151377499</v>
       </c>
       <c r="M28" s="26" t="s">
@@ -2269,7 +2296,7 @@
         <v>42</v>
       </c>
       <c r="P28" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q28" s="26" t="s">
         <v>42</v>
@@ -2312,18 +2339,18 @@
       <c r="H29" s="28">
         <v>1</v>
       </c>
-      <c r="I29" s="73" t="e">
+      <c r="I29" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J29" s="73">
+      <c r="J29" s="31">
         <v>17.547005383792499</v>
       </c>
-      <c r="K29" s="73" t="e">
+      <c r="K29" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L29" s="73">
+      <c r="L29" s="31">
         <v>40.641016151377499</v>
       </c>
       <c r="M29" s="26" t="s">
@@ -2336,7 +2363,7 @@
         <v>42</v>
       </c>
       <c r="P29" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q29" s="26" t="s">
         <v>42</v>
@@ -2379,18 +2406,18 @@
       <c r="H30" s="28">
         <v>1</v>
       </c>
-      <c r="I30" s="73" t="e">
+      <c r="I30" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J30" s="73">
+      <c r="J30" s="31">
         <v>18.547005383792499</v>
       </c>
-      <c r="K30" s="73" t="e">
+      <c r="K30" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L30" s="73">
+      <c r="L30" s="31">
         <v>41.641016151377499</v>
       </c>
       <c r="M30" s="26" t="s">
@@ -2403,7 +2430,7 @@
         <v>42</v>
       </c>
       <c r="P30" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q30" s="26" t="s">
         <v>42</v>
@@ -2446,18 +2473,18 @@
       <c r="H31" s="28">
         <v>1</v>
       </c>
-      <c r="I31" s="73" t="e">
+      <c r="I31" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J31" s="73">
+      <c r="J31" s="31">
         <v>19.547005383792499</v>
       </c>
-      <c r="K31" s="73" t="e">
+      <c r="K31" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L31" s="73">
+      <c r="L31" s="31">
         <v>42.641016151377499</v>
       </c>
       <c r="M31" s="26" t="s">
@@ -2470,7 +2497,7 @@
         <v>42</v>
       </c>
       <c r="P31" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q31" s="26" t="s">
         <v>42</v>
@@ -2513,18 +2540,18 @@
       <c r="H32" s="24">
         <v>0.86599999999999999</v>
       </c>
-      <c r="I32" s="73" t="e">
+      <c r="I32" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J32" s="73">
+      <c r="J32" s="31">
         <v>20.547005383792499</v>
       </c>
-      <c r="K32" s="73" t="e">
+      <c r="K32" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L32" s="73">
+      <c r="L32" s="31">
         <v>43.641016151377499</v>
       </c>
       <c r="M32" s="26" t="s">
@@ -2537,7 +2564,7 @@
         <v>42</v>
       </c>
       <c r="P32" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q32" s="26" t="s">
         <v>42</v>
@@ -2580,18 +2607,18 @@
       <c r="H33" s="29">
         <v>0.5</v>
       </c>
-      <c r="I33" s="73" t="e">
+      <c r="I33" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J33" s="73">
+      <c r="J33" s="31">
         <v>21.547005383792499</v>
       </c>
-      <c r="K33" s="73" t="e">
+      <c r="K33" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L33" s="73">
+      <c r="L33" s="31">
         <v>44.641016151377499</v>
       </c>
       <c r="M33" s="26" t="s">
@@ -2604,7 +2631,7 @@
         <v>42</v>
       </c>
       <c r="P33" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q33" s="26" t="s">
         <v>42</v>
@@ -2647,18 +2674,18 @@
       <c r="H34" s="24">
         <v>0.86599999999999999</v>
       </c>
-      <c r="I34" s="73" t="e">
+      <c r="I34" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J34" s="73">
+      <c r="J34" s="31">
         <v>22.547005383792499</v>
       </c>
-      <c r="K34" s="73" t="e">
+      <c r="K34" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L34" s="73">
+      <c r="L34" s="31">
         <v>45.641016151377499</v>
       </c>
       <c r="M34" s="26" t="s">
@@ -2671,7 +2698,7 @@
         <v>42</v>
       </c>
       <c r="P34" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q34" s="26" t="s">
         <v>42</v>
@@ -2714,18 +2741,18 @@
       <c r="H35" s="29">
         <v>-0.5</v>
       </c>
-      <c r="I35" s="73" t="e">
+      <c r="I35" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J35" s="73">
+      <c r="J35" s="31">
         <v>23.547005383792499</v>
       </c>
-      <c r="K35" s="73" t="e">
+      <c r="K35" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L35" s="73">
+      <c r="L35" s="31">
         <v>46.641016151377499</v>
       </c>
       <c r="M35" s="26" t="s">
@@ -2738,7 +2765,7 @@
         <v>42</v>
       </c>
       <c r="P35" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q35" s="26" t="s">
         <v>42</v>
@@ -2750,7 +2777,7 @@
         <v>42</v>
       </c>
       <c r="T35" s="19" t="e">
-        <f t="shared" si="4"/>
+        <f>(P35-($M$20*K35)/(SQRT(3)*$M$5*$I$5*(SIN(90*PI()/180))*IF($H$20="(-5)..0..5","1","-1")))/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="U35" s="33"/>
@@ -2784,38 +2811,38 @@
     <row r="61" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:22" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="E63" s="54"/>
-      <c r="F63" s="72"/>
+      <c r="A63" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="36"/>
+      <c r="F63" s="37"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
-      <c r="I63" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="72"/>
+      <c r="I63" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="37"/>
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
-      <c r="Q63" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="R63" s="54"/>
-      <c r="S63" s="54"/>
-      <c r="T63" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="U63" s="54"/>
-      <c r="V63" s="72"/>
+      <c r="Q63" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="R63" s="36"/>
+      <c r="S63" s="36"/>
+      <c r="T63" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="U63" s="36"/>
+      <c r="V63" s="37"/>
     </row>
     <row r="64" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2901,30 +2928,79 @@
     <row r="145" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="U23:V35"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A18:R18"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="A16:R16"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="N7:U7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="L1:V1"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="N20:V20"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="S17:V17"/>
     <mergeCell ref="S15:V15"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="R13:U13"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
     <mergeCell ref="T63:V63"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
@@ -2949,77 +3025,28 @@
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="K27:L27"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="N20:V20"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="N7:U7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="L1:V1"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="U23:V35"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="A18:R18"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="A16:R16"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.25196850393700793" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Libary/MTE_142_Q.xlsx
+++ b/Libary/MTE_142_Q.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\Mea-Auto_develop\Libary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\AMSof_Develop\Libary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
-    <sheet name="Вих2" sheetId="1" r:id="rId1"/>
-    <sheet name="Вих3" sheetId="4" r:id="rId2"/>
+    <sheet name="Протокол" sheetId="1" r:id="rId1"/>
+    <sheet name="Графік сигналу" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
 </workbook>
@@ -29,14 +29,15 @@
       <text>
         <r>
           <rPr>
-            <sz val="6"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="204"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>+180 на РЕСУРС-К2
-0 на М113С</t>
+          <t xml:space="preserve">+180 на РЕСУРС-К2
+</t>
         </r>
       </text>
     </comment>
@@ -44,14 +45,14 @@
       <text>
         <r>
           <rPr>
-            <sz val="6"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="204"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>+90 на РЕСУРС-К2
-+270 на М113С</t>
+          <t>+90 на РЕСУРС-К2</t>
         </r>
       </text>
     </comment>
@@ -59,14 +60,14 @@
       <text>
         <r>
           <rPr>
-            <sz val="6"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="204"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>-90 на РЕСУРС-К2
-+90 на М113С</t>
+          <t>-90 на РЕСУРС-К2</t>
         </r>
       </text>
     </comment>
@@ -88,14 +89,15 @@
       <text>
         <r>
           <rPr>
-            <sz val="6"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="204"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>+90 на РЕСУРС-К2
-+270 на М113С</t>
+          <t xml:space="preserve">+90 на РЕСУРС-К2
+</t>
         </r>
       </text>
     </comment>
@@ -103,14 +105,15 @@
       <text>
         <r>
           <rPr>
-            <sz val="6"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="204"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>+90 на РЕСУРС-К2
-+270 на М113С</t>
+          <t xml:space="preserve">+90 на РЕСУРС-К2
+</t>
         </r>
       </text>
     </comment>
@@ -118,14 +121,15 @@
       <text>
         <r>
           <rPr>
-            <sz val="6"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="204"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>+90 на РЕСУРС-К2
-+270 на М113С</t>
+          <t xml:space="preserve">+90 на РЕСУРС-К2
+</t>
         </r>
       </text>
     </comment>
@@ -133,14 +137,15 @@
       <text>
         <r>
           <rPr>
-            <sz val="6"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="204"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>+90 на РЕСУРС-К2
-+270 на М113С</t>
+          <t xml:space="preserve">+90 на РЕСУРС-К2
+</t>
         </r>
       </text>
     </comment>
@@ -148,14 +153,15 @@
       <text>
         <r>
           <rPr>
-            <sz val="6"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="204"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>+90 на РЕСУРС-К2
-+270 на М113С</t>
+          <t xml:space="preserve">+90 на РЕСУРС-К2
+</t>
         </r>
       </text>
     </comment>
@@ -163,14 +169,15 @@
       <text>
         <r>
           <rPr>
-            <sz val="6"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="204"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>+90 на РЕСУРС-К2
-+270 на М113С</t>
+          <t xml:space="preserve">+90 на РЕСУРС-К2
+</t>
         </r>
       </text>
     </comment>
@@ -178,14 +185,14 @@
       <text>
         <r>
           <rPr>
-            <sz val="6"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="204"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>+60 на РЕСУРС-К2
-+240 на М113С</t>
+          <t>+60 на РЕСУРС-К2</t>
         </r>
       </text>
     </comment>
@@ -193,14 +200,14 @@
       <text>
         <r>
           <rPr>
-            <sz val="6"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="204"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>+150 на РЕСУРС-К2
-+330 на М113С</t>
+          <t>+150 на РЕСУРС-К2</t>
         </r>
       </text>
     </comment>
@@ -208,14 +215,14 @@
       <text>
         <r>
           <rPr>
-            <sz val="6"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="204"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>+120 на РЕСУРС-К2
-+300 на М113С</t>
+          <t>+120 на РЕСУРС-К2</t>
         </r>
       </text>
     </comment>
@@ -223,14 +230,15 @@
       <text>
         <r>
           <rPr>
-            <sz val="6"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="204"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>-30 на РЕСУРС-К2
-+150 на М113С</t>
+          <t xml:space="preserve">-30 на РЕСУРС-К2
+</t>
         </r>
       </text>
     </comment>
@@ -460,14 +468,13 @@
     <t>Дійсн. знач. потужності мережі, Var</t>
   </si>
   <si>
-    <t>Виміряне значення вихідного струму, mA
-(реактивної потужності, Var)</t>
-  </si>
-  <si>
     <t>Границі основної приведеної похибки, ± %</t>
   </si>
   <si>
-    <t>Нормуюче знач. вих. сигналу, mA (Var)</t>
+    <t>Номінальна потужність, Var</t>
+  </si>
+  <si>
+    <t>Виміряне значення вихідного струму, mA</t>
   </si>
 </sst>
 </file>
@@ -479,7 +486,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,13 +573,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -735,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -800,12 +800,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -822,6 +816,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -889,6 +889,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1247,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W145"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="180" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="180" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,32 +1263,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="60" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1314,12 +1317,12 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="36" t="s">
         <v>0</v>
       </c>
@@ -1331,25 +1334,25 @@
         <v>27</v>
       </c>
       <c r="K3" s="36"/>
-      <c r="L3" s="66" t="s">
+      <c r="L3" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="66"/>
-      <c r="N3" s="63" t="s">
+      <c r="M3" s="67"/>
+      <c r="N3" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="63"/>
+      <c r="O3" s="64"/>
       <c r="P3" s="36" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="36"/>
-      <c r="R3" s="63" t="s">
+      <c r="R3" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="65"/>
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1384,7 +1387,7 @@
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
-      <c r="E5" s="22">
+      <c r="E5" s="28">
         <v>0.25</v>
       </c>
       <c r="F5" s="34" t="s">
@@ -1392,7 +1395,7 @@
       </c>
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="28" t="s">
         <v>45</v>
       </c>
       <c r="J5" s="34" t="s">
@@ -1400,20 +1403,25 @@
       </c>
       <c r="K5" s="35"/>
       <c r="L5" s="35"/>
-      <c r="M5" s="22">
+      <c r="M5" s="28">
         <v>100</v>
       </c>
-      <c r="N5" s="34"/>
+      <c r="N5" s="34" t="s">
+        <v>68</v>
+      </c>
       <c r="O5" s="35"/>
       <c r="P5" s="35"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="67" t="s">
+      <c r="Q5" s="28" t="e">
+        <f>I5*M5*SQRT(3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R5" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="23">
-        <v>4</v>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="29">
+        <v>3</v>
       </c>
       <c r="V5" s="13"/>
       <c r="W5" s="15"/>
@@ -1445,53 +1453,53 @@
     </row>
     <row r="7" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="N7" s="59" t="s">
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="N7" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="N8" s="56" t="s">
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="N8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56" t="s">
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
     </row>
     <row r="9" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
@@ -1504,18 +1512,18 @@
         <v>9</v>
       </c>
       <c r="E9" s="40"/>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
-      <c r="N9" s="69" t="s">
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
+      <c r="N9" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="72"/>
       <c r="R9" s="45">
         <v>556621</v>
       </c>
@@ -1530,22 +1538,22 @@
       <c r="C10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="53" t="s">
+      <c r="E10" s="66"/>
+      <c r="F10" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-      <c r="N10" s="72" t="s">
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
+      <c r="N10" s="73" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="51"/>
       <c r="P10" s="51"/>
-      <c r="Q10" s="73"/>
+      <c r="Q10" s="74"/>
       <c r="R10" s="45" t="s">
         <v>47</v>
       </c>
@@ -1564,18 +1572,18 @@
         <v>11</v>
       </c>
       <c r="E11" s="40"/>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
-      <c r="N11" s="72" t="s">
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="56"/>
+      <c r="N11" s="73" t="s">
         <v>48</v>
       </c>
       <c r="O11" s="51"/>
       <c r="P11" s="51"/>
-      <c r="Q11" s="73"/>
+      <c r="Q11" s="74"/>
       <c r="R11" s="45" t="s">
         <v>49</v>
       </c>
@@ -1594,18 +1602,18 @@
         <v>12</v>
       </c>
       <c r="E12" s="40"/>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="55"/>
-      <c r="N12" s="72" t="s">
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56"/>
+      <c r="N12" s="73" t="s">
         <v>50</v>
       </c>
       <c r="O12" s="51"/>
       <c r="P12" s="51"/>
-      <c r="Q12" s="73"/>
+      <c r="Q12" s="74"/>
       <c r="R12" s="45" t="s">
         <v>51</v>
       </c>
@@ -1667,96 +1675,96 @@
       <c r="P15" s="32"/>
       <c r="Q15" s="32"/>
       <c r="R15" s="32"/>
-      <c r="S15" s="57" t="s">
+      <c r="S15" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
     </row>
     <row r="16" spans="1:23" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="56" t="s">
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
     </row>
     <row r="17" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="56" t="s">
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
     </row>
     <row r="18" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="56" t="s">
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="T18" s="75"/>
-      <c r="U18" s="75"/>
-      <c r="V18" s="75"/>
+      <c r="T18" s="76"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
     </row>
     <row r="19" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1779,47 +1787,48 @@
       <c r="R19" s="8"/>
     </row>
     <row r="20" spans="1:22" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="24" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="26" t="s">
+      <c r="D20" s="77"/>
+      <c r="E20" s="24" t="s">
         <v>45</v>
       </c>
       <c r="F20" s="38" t="s">
         <v>56</v>
       </c>
       <c r="G20" s="38"/>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="38" t="s">
-        <v>69</v>
+      <c r="I20" s="52"/>
+      <c r="J20" s="38" t="str">
+        <f>IF(H20="Без аналогового виходу","Нормуюче знач. потужності, Var","Нормуюче знач. вих. сигналу, mA")</f>
+        <v>Нормуюче знач. вих. сигналу, mA</v>
       </c>
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
-      <c r="M20" s="26" t="str">
+      <c r="M20" s="24" t="str">
         <f>IF(H20="(-5)..0..5","5",IF(H20="0..5","5",IF(H20="0..2,5..5","5","20")))</f>
         <v>20</v>
       </c>
-      <c r="N20" s="52" t="s">
+      <c r="N20" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
     </row>
     <row r="21" spans="1:22" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
@@ -1853,7 +1862,7 @@
       </c>
       <c r="L21" s="38"/>
       <c r="M21" s="38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N21" s="38"/>
       <c r="O21" s="38"/>
@@ -1865,9 +1874,9 @@
       <c r="S21" s="38"/>
       <c r="T21" s="38"/>
       <c r="U21" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="V21" s="56"/>
+        <v>67</v>
+      </c>
+      <c r="V21" s="57"/>
     </row>
     <row r="22" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
@@ -1882,32 +1891,32 @@
       <c r="J22" s="38"/>
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
-      <c r="M22" s="25" t="s">
+      <c r="M22" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="N22" s="25" t="s">
+      <c r="N22" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="O22" s="25" t="s">
+      <c r="O22" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="P22" s="25" t="s">
+      <c r="P22" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="Q22" s="25" t="s">
+      <c r="Q22" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="R22" s="25" t="s">
+      <c r="R22" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="S22" s="25" t="s">
+      <c r="S22" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="T22" s="25" t="s">
+      <c r="T22" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
     </row>
     <row r="23" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
@@ -1921,17 +1930,17 @@
       <c r="D23" s="17">
         <v>1</v>
       </c>
-      <c r="E23" s="26" t="e">
+      <c r="E23" s="24" t="e">
         <f t="shared" ref="E23:E35" si="1">$I$5*D23</f>
         <v>#VALUE!</v>
       </c>
       <c r="F23" s="30">
-        <v>0</v>
-      </c>
-      <c r="G23" s="28">
+        <v>180</v>
+      </c>
+      <c r="G23" s="26">
         <v>-1</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="26">
         <v>0</v>
       </c>
       <c r="I23" s="31" t="e">
@@ -1948,25 +1957,25 @@
       <c r="L23" s="31">
         <v>34.641016151377542</v>
       </c>
-      <c r="M23" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="N23" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="O23" s="26" t="s">
+      <c r="M23" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" s="24" t="s">
         <v>42</v>
       </c>
       <c r="P23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Q23" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="R23" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="S23" s="26" t="s">
+      <c r="Q23" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="R23" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="S23" s="24" t="s">
         <v>42</v>
       </c>
       <c r="T23" s="19" t="e">
@@ -1991,17 +2000,17 @@
       <c r="D24" s="17">
         <v>1</v>
       </c>
-      <c r="E24" s="26" t="e">
+      <c r="E24" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F24" s="30">
         <v>90</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="26">
         <v>0</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="26">
         <v>1</v>
       </c>
       <c r="I24" s="31" t="e">
@@ -2018,25 +2027,25 @@
       <c r="L24" s="31">
         <v>35.641016151377499</v>
       </c>
-      <c r="M24" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="N24" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="O24" s="26" t="s">
+      <c r="M24" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" s="24" t="s">
         <v>42</v>
       </c>
       <c r="P24" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Q24" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="R24" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="S24" s="26" t="s">
+      <c r="Q24" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="R24" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="S24" s="24" t="s">
         <v>42</v>
       </c>
       <c r="T24" s="19" t="e">
@@ -2058,17 +2067,17 @@
       <c r="D25" s="17">
         <v>1</v>
       </c>
-      <c r="E25" s="26" t="e">
+      <c r="E25" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F25" s="30">
         <v>270</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="26">
         <v>0</v>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="26">
         <v>-1</v>
       </c>
       <c r="I25" s="31" t="e">
@@ -2085,25 +2094,25 @@
       <c r="L25" s="31">
         <v>36.641016151377499</v>
       </c>
-      <c r="M25" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="N25" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="O25" s="26" t="s">
+      <c r="M25" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25" s="24" t="s">
         <v>42</v>
       </c>
       <c r="P25" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Q25" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="R25" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="S25" s="26" t="s">
+      <c r="Q25" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="R25" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="S25" s="24" t="s">
         <v>42</v>
       </c>
       <c r="T25" s="19" t="e">
@@ -2125,17 +2134,17 @@
       <c r="D26" s="17">
         <v>1</v>
       </c>
-      <c r="E26" s="26" t="e">
+      <c r="E26" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F26" s="30">
         <v>90</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="26">
         <v>0</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="26">
         <v>1</v>
       </c>
       <c r="I26" s="31" t="e">
@@ -2152,25 +2161,25 @@
       <c r="L26" s="31">
         <v>37.641016151377499</v>
       </c>
-      <c r="M26" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="N26" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="O26" s="26" t="s">
+      <c r="M26" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" s="24" t="s">
         <v>42</v>
       </c>
       <c r="P26" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Q26" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="R26" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="S26" s="26" t="s">
+      <c r="Q26" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="R26" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="S26" s="24" t="s">
         <v>42</v>
       </c>
       <c r="T26" s="19" t="e">
@@ -2192,17 +2201,17 @@
       <c r="D27" s="17">
         <v>1</v>
       </c>
-      <c r="E27" s="26" t="e">
+      <c r="E27" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F27" s="30">
         <v>90</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="26">
         <v>0</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="26">
         <v>1</v>
       </c>
       <c r="I27" s="31" t="e">
@@ -2219,25 +2228,25 @@
       <c r="L27" s="31">
         <v>38.641016151377499</v>
       </c>
-      <c r="M27" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="N27" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="O27" s="26" t="s">
+      <c r="M27" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" s="24" t="s">
         <v>42</v>
       </c>
       <c r="P27" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Q27" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="R27" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="S27" s="26" t="s">
+      <c r="Q27" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="R27" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="S27" s="24" t="s">
         <v>42</v>
       </c>
       <c r="T27" s="19" t="e">
@@ -2259,17 +2268,17 @@
       <c r="D28" s="17">
         <v>1</v>
       </c>
-      <c r="E28" s="26" t="e">
+      <c r="E28" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F28" s="30">
         <v>90</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="26">
         <v>0</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="26">
         <v>1</v>
       </c>
       <c r="I28" s="31" t="e">
@@ -2286,25 +2295,25 @@
       <c r="L28" s="31">
         <v>39.641016151377499</v>
       </c>
-      <c r="M28" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="N28" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="O28" s="26" t="s">
+      <c r="M28" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28" s="24" t="s">
         <v>42</v>
       </c>
       <c r="P28" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Q28" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="R28" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="S28" s="26" t="s">
+      <c r="Q28" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="R28" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="S28" s="24" t="s">
         <v>42</v>
       </c>
       <c r="T28" s="19" t="e">
@@ -2326,17 +2335,17 @@
       <c r="D29" s="17">
         <v>0.01</v>
       </c>
-      <c r="E29" s="26" t="e">
+      <c r="E29" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F29" s="30">
         <v>90</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="26">
         <v>0</v>
       </c>
-      <c r="H29" s="28">
+      <c r="H29" s="26">
         <v>1</v>
       </c>
       <c r="I29" s="31" t="e">
@@ -2353,25 +2362,25 @@
       <c r="L29" s="31">
         <v>40.641016151377499</v>
       </c>
-      <c r="M29" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="N29" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="O29" s="26" t="s">
+      <c r="M29" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" s="24" t="s">
         <v>42</v>
       </c>
       <c r="P29" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Q29" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="R29" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="S29" s="26" t="s">
+      <c r="Q29" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="R29" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="S29" s="24" t="s">
         <v>42</v>
       </c>
       <c r="T29" s="19" t="e">
@@ -2393,17 +2402,17 @@
       <c r="D30" s="17">
         <v>0.1</v>
       </c>
-      <c r="E30" s="26" t="e">
+      <c r="E30" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F30" s="30">
         <v>90</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="26">
         <v>0</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="26">
         <v>1</v>
       </c>
       <c r="I30" s="31" t="e">
@@ -2420,25 +2429,25 @@
       <c r="L30" s="31">
         <v>41.641016151377499</v>
       </c>
-      <c r="M30" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="N30" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="O30" s="26" t="s">
+      <c r="M30" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="N30" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30" s="24" t="s">
         <v>42</v>
       </c>
       <c r="P30" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Q30" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="R30" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="S30" s="26" t="s">
+      <c r="Q30" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="R30" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="S30" s="24" t="s">
         <v>42</v>
       </c>
       <c r="T30" s="19" t="e">
@@ -2460,17 +2469,17 @@
       <c r="D31" s="17">
         <v>0.5</v>
       </c>
-      <c r="E31" s="26" t="e">
+      <c r="E31" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F31" s="30">
         <v>90</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="26">
         <v>0</v>
       </c>
-      <c r="H31" s="28">
+      <c r="H31" s="26">
         <v>1</v>
       </c>
       <c r="I31" s="31" t="e">
@@ -2487,25 +2496,25 @@
       <c r="L31" s="31">
         <v>42.641016151377499</v>
       </c>
-      <c r="M31" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="N31" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="O31" s="26" t="s">
+      <c r="M31" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="N31" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O31" s="24" t="s">
         <v>42</v>
       </c>
       <c r="P31" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Q31" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="R31" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="S31" s="26" t="s">
+      <c r="Q31" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="R31" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="S31" s="24" t="s">
         <v>42</v>
       </c>
       <c r="T31" s="19" t="e">
@@ -2527,17 +2536,17 @@
       <c r="D32" s="17">
         <v>1</v>
       </c>
-      <c r="E32" s="26" t="e">
+      <c r="E32" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F32" s="30">
         <v>60</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G32" s="27">
         <v>0.5</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="22">
         <v>0.86599999999999999</v>
       </c>
       <c r="I32" s="31" t="e">
@@ -2554,25 +2563,25 @@
       <c r="L32" s="31">
         <v>43.641016151377499</v>
       </c>
-      <c r="M32" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="N32" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="O32" s="26" t="s">
+      <c r="M32" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="N32" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" s="24" t="s">
         <v>42</v>
       </c>
       <c r="P32" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Q32" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="R32" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="S32" s="26" t="s">
+      <c r="Q32" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="R32" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="S32" s="24" t="s">
         <v>42</v>
       </c>
       <c r="T32" s="19" t="e">
@@ -2594,17 +2603,17 @@
       <c r="D33" s="17">
         <v>1</v>
       </c>
-      <c r="E33" s="26" t="e">
+      <c r="E33" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F33" s="30">
         <v>150</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="22">
         <v>-0.86599999999999999</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="27">
         <v>0.5</v>
       </c>
       <c r="I33" s="31" t="e">
@@ -2621,25 +2630,25 @@
       <c r="L33" s="31">
         <v>44.641016151377499</v>
       </c>
-      <c r="M33" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="N33" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="O33" s="26" t="s">
+      <c r="M33" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="N33" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O33" s="24" t="s">
         <v>42</v>
       </c>
       <c r="P33" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Q33" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="R33" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="S33" s="26" t="s">
+      <c r="Q33" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="R33" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="S33" s="24" t="s">
         <v>42</v>
       </c>
       <c r="T33" s="19" t="e">
@@ -2661,17 +2670,17 @@
       <c r="D34" s="17">
         <v>1</v>
       </c>
-      <c r="E34" s="26" t="e">
+      <c r="E34" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F34" s="30">
         <v>120</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="27">
         <v>-0.5</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="22">
         <v>0.86599999999999999</v>
       </c>
       <c r="I34" s="31" t="e">
@@ -2688,25 +2697,25 @@
       <c r="L34" s="31">
         <v>45.641016151377499</v>
       </c>
-      <c r="M34" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="N34" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="O34" s="26" t="s">
+      <c r="M34" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="N34" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" s="24" t="s">
         <v>42</v>
       </c>
       <c r="P34" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Q34" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="R34" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="S34" s="26" t="s">
+      <c r="Q34" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="R34" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="S34" s="24" t="s">
         <v>42</v>
       </c>
       <c r="T34" s="19" t="e">
@@ -2728,17 +2737,17 @@
       <c r="D35" s="17">
         <v>1</v>
       </c>
-      <c r="E35" s="26" t="e">
+      <c r="E35" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F35" s="30">
         <v>330</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="22">
         <v>0.86599999999999999</v>
       </c>
-      <c r="H35" s="29">
+      <c r="H35" s="27">
         <v>-0.5</v>
       </c>
       <c r="I35" s="31" t="e">
@@ -2755,25 +2764,25 @@
       <c r="L35" s="31">
         <v>46.641016151377499</v>
       </c>
-      <c r="M35" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="N35" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="O35" s="26" t="s">
+      <c r="M35" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="N35" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O35" s="24" t="s">
         <v>42</v>
       </c>
       <c r="P35" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Q35" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="R35" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="S35" s="26" t="s">
+      <c r="Q35" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="R35" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="S35" s="24" t="s">
         <v>42</v>
       </c>
       <c r="T35" s="19" t="e">
@@ -3048,6 +3057,11 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B29:C29"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Виберіть значення з випадаючого списку" sqref="H20:I20">
+      <formula1>"0..5,(-5)..0..5,Інше,Без аналогового виходу"</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.25196850393700793" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
